--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>1.723298487038223</v>
+        <v>22.90513968520577</v>
       </c>
       <c r="R2">
-        <v>1.723298487038223</v>
+        <v>206.146257166852</v>
       </c>
       <c r="S2">
-        <v>0.0005452877895705616</v>
+        <v>0.003884923224756256</v>
       </c>
       <c r="T2">
-        <v>0.0005452877895705616</v>
+        <v>0.003884923224756257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>3.539794798974279</v>
+        <v>12.225212836614</v>
       </c>
       <c r="R3">
-        <v>3.539794798974279</v>
+        <v>110.026915529526</v>
       </c>
       <c r="S3">
-        <v>0.001120065325875983</v>
+        <v>0.002073508999695209</v>
       </c>
       <c r="T3">
-        <v>0.001120065325875983</v>
+        <v>0.002073508999695209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>1.868958440683204</v>
+        <v>0.5762631420293333</v>
       </c>
       <c r="R4">
-        <v>1.868958440683204</v>
+        <v>5.186368278264</v>
       </c>
       <c r="S4">
-        <v>0.0005913776542976699</v>
+        <v>9.773955080862271E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005913776542976699</v>
+        <v>9.773955080862272E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1057.59239341469</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>1057.59239341469</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.8921878308609239</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>681.2979021200699</v>
+        <v>6.145067892684666</v>
       </c>
       <c r="R5">
-        <v>681.2979021200699</v>
+        <v>55.305611034162</v>
       </c>
       <c r="S5">
-        <v>0.2155769472789387</v>
+        <v>0.001042260265691114</v>
       </c>
       <c r="T5">
-        <v>0.2155769472789387</v>
+        <v>0.001042260265691114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H6">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I6">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J6">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>1399.441123296954</v>
+        <v>2796.237874186958</v>
       </c>
       <c r="R6">
-        <v>1399.441123296954</v>
+        <v>25166.14086768262</v>
       </c>
       <c r="S6">
-        <v>0.4428125263826185</v>
+        <v>0.4742677673512902</v>
       </c>
       <c r="T6">
-        <v>0.4428125263826185</v>
+        <v>0.4742677673512903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H7">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J7">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>738.8838755237773</v>
+        <v>1492.442465907168</v>
       </c>
       <c r="R7">
-        <v>738.8838755237773</v>
+        <v>13431.98219316451</v>
       </c>
       <c r="S7">
-        <v>0.2337983571993666</v>
+        <v>0.2531320252615682</v>
       </c>
       <c r="T7">
-        <v>0.2337983571993666</v>
+        <v>0.2531320252615682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.653441485430622</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>0.653441485430622</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>0.4209450786088846</v>
+        <v>70.34966149021868</v>
       </c>
       <c r="R8">
-        <v>0.4209450786088846</v>
+        <v>633.1469534119681</v>
       </c>
       <c r="S8">
-        <v>0.0001331958527043921</v>
+        <v>0.01193195228377565</v>
       </c>
       <c r="T8">
-        <v>0.0001331958527043921</v>
+        <v>0.01193195228377565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.653441485430622</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>0.653441485430622</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.0005512450213437673</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>0.8646553171844683</v>
+        <v>750.1840991641494</v>
       </c>
       <c r="R9">
-        <v>0.8646553171844683</v>
+        <v>6751.656892477345</v>
       </c>
       <c r="S9">
-        <v>0.0002735950795490334</v>
+        <v>0.1272381513380617</v>
       </c>
       <c r="T9">
-        <v>0.0002735950795490334</v>
+        <v>0.1272381513380617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H10">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I10">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J10">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.698647115963187</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N10">
-        <v>0.698647115963187</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q10">
-        <v>0.4565250092468049</v>
+        <v>2.218795258751555</v>
       </c>
       <c r="R10">
-        <v>0.4565250092468049</v>
+        <v>19.969157328764</v>
       </c>
       <c r="S10">
-        <v>0.0001444540890903417</v>
+        <v>0.0003763281669602944</v>
       </c>
       <c r="T10">
-        <v>0.0001444540890903417</v>
+        <v>0.0003763281669602944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.65909260665672</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H11">
-        <v>1.65909260665672</v>
+        <v>2.535211</v>
       </c>
       <c r="I11">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J11">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6441970520611791</v>
+        <v>1.401354</v>
       </c>
       <c r="N11">
-        <v>0.6441970520611791</v>
+        <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q11">
-        <v>1.068782566304756</v>
+        <v>1.184242691898</v>
       </c>
       <c r="R11">
-        <v>1.068782566304756</v>
+        <v>10.658184227082</v>
       </c>
       <c r="S11">
-        <v>0.0003381852229868211</v>
+        <v>0.000200858497294996</v>
       </c>
       <c r="T11">
-        <v>0.0003381852229868211</v>
+        <v>0.0002008584972949959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.65909260665672</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H12">
-        <v>1.65909260665672</v>
+        <v>2.535211</v>
       </c>
       <c r="I12">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J12">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.32323296953614</v>
+        <v>0.066056</v>
       </c>
       <c r="N12">
-        <v>1.32323296953614</v>
+        <v>0.198168</v>
       </c>
       <c r="O12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q12">
-        <v>2.195366036641827</v>
+        <v>0.05582196593866667</v>
       </c>
       <c r="R12">
-        <v>2.195366036641827</v>
+        <v>0.502397693448</v>
       </c>
       <c r="S12">
-        <v>0.0006946598644533913</v>
+        <v>9.467920951678343E-06</v>
       </c>
       <c r="T12">
-        <v>0.0006946598644533913</v>
+        <v>9.467920951678341E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.65909260665672</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H13">
-        <v>1.65909260665672</v>
+        <v>2.535211</v>
       </c>
       <c r="I13">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J13">
-        <v>0.001399615053159756</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.698647115963187</v>
+        <v>0.704398</v>
       </c>
       <c r="N13">
-        <v>0.698647115963187</v>
+        <v>2.113194</v>
       </c>
       <c r="O13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q13">
-        <v>1.159120264756563</v>
+        <v>0.5952658526593333</v>
       </c>
       <c r="R13">
-        <v>1.159120264756563</v>
+        <v>5.357392673934</v>
       </c>
       <c r="S13">
-        <v>0.0003667699657195439</v>
+        <v>0.0001009625860258011</v>
       </c>
       <c r="T13">
-        <v>0.0003667699657195439</v>
+        <v>0.0001009625860258011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.114816711759854</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H14">
-        <v>0.114816711759854</v>
+        <v>5.342195</v>
       </c>
       <c r="I14">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J14">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N14">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q14">
-        <v>0.07396458724305606</v>
+        <v>4.675443952131111</v>
       </c>
       <c r="R14">
-        <v>0.07396458724305606</v>
+        <v>42.07899556918</v>
       </c>
       <c r="S14">
-        <v>2.340394690044803E-05</v>
+        <v>0.000792998473063761</v>
       </c>
       <c r="T14">
-        <v>2.340394690044803E-05</v>
+        <v>0.000792998473063761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.114816711759854</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H15">
-        <v>0.114816711759854</v>
+        <v>5.342195</v>
       </c>
       <c r="I15">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J15">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N15">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q15">
-        <v>0.1519292584543667</v>
+        <v>2.49543544401</v>
       </c>
       <c r="R15">
-        <v>0.1519292584543667</v>
+        <v>22.45891899609</v>
       </c>
       <c r="S15">
-        <v>4.807360427505479E-05</v>
+        <v>0.0004232488972148043</v>
       </c>
       <c r="T15">
-        <v>4.807360427505479E-05</v>
+        <v>0.0004232488972148042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.114816711759854</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H16">
-        <v>0.114816711759854</v>
+        <v>5.342195</v>
       </c>
       <c r="I16">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J16">
-        <v>9.685969154984395E-05</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N16">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q16">
-        <v>0.08021636453539853</v>
+        <v>0.1176280109733333</v>
       </c>
       <c r="R16">
-        <v>0.08021636453539853</v>
+        <v>1.05865209876</v>
       </c>
       <c r="S16">
-        <v>2.538214037434113E-05</v>
+        <v>1.995079698236214E-05</v>
       </c>
       <c r="T16">
-        <v>2.538214037434113E-05</v>
+        <v>1.995079698236213E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.697230412684</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H17">
-        <v>122.697230412684</v>
+        <v>5.342195</v>
       </c>
       <c r="I17">
-        <v>0.1035077186032785</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J17">
-        <v>0.1035077186032785</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N17">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q17">
-        <v>79.04119412792227</v>
+        <v>1.254343824536667</v>
       </c>
       <c r="R17">
-        <v>79.04119412792227</v>
+        <v>11.28909442083</v>
       </c>
       <c r="S17">
-        <v>0.0250102918067939</v>
+        <v>0.0002127482967903282</v>
       </c>
       <c r="T17">
-        <v>0.0250102918067939</v>
+        <v>0.0002127482967903282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>122.697230412684</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H18">
-        <v>122.697230412684</v>
+        <v>0.752533</v>
       </c>
       <c r="I18">
-        <v>0.1035077186032785</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J18">
-        <v>0.1035077186032785</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N18">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q18">
-        <v>162.3570205528358</v>
+        <v>0.6586105268768889</v>
       </c>
       <c r="R18">
-        <v>162.3570205528358</v>
+        <v>5.927494741892</v>
       </c>
       <c r="S18">
-        <v>0.05137316693794234</v>
+        <v>0.0001117064277754914</v>
       </c>
       <c r="T18">
-        <v>0.05137316693794234</v>
+        <v>0.0001117064277754914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.752533</v>
+      </c>
+      <c r="I19">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J19">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.401354</v>
+      </c>
+      <c r="N19">
+        <v>4.204062</v>
+      </c>
+      <c r="O19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q19">
+        <v>0.3515217098940001</v>
+      </c>
+      <c r="R19">
+        <v>3.163695389046</v>
+      </c>
+      <c r="S19">
+        <v>5.962132838051555E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.962132838051554E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.752533</v>
+      </c>
+      <c r="I20">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J20">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.066056</v>
+      </c>
+      <c r="N20">
+        <v>0.198168</v>
+      </c>
+      <c r="O20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q20">
+        <v>0.01656977328266667</v>
+      </c>
+      <c r="R20">
+        <v>0.149127959544</v>
+      </c>
+      <c r="S20">
+        <v>2.810386574344052E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.810386574344052E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2508443333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.752533</v>
+      </c>
+      <c r="I21">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="J21">
+        <v>0.0002041071187839237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.704398</v>
+      </c>
+      <c r="N21">
+        <v>2.113194</v>
+      </c>
+      <c r="O21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q21">
+        <v>0.1766942467113333</v>
+      </c>
+      <c r="R21">
+        <v>1.590248220402</v>
+      </c>
+      <c r="S21">
+        <v>2.996897605357275E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.996897605357275E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>122.697230412684</v>
-      </c>
-      <c r="H19">
-        <v>122.697230412684</v>
-      </c>
-      <c r="I19">
-        <v>0.1035077186032785</v>
-      </c>
-      <c r="J19">
-        <v>0.1035077186032785</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q19">
-        <v>85.7220661644923</v>
-      </c>
-      <c r="R19">
-        <v>85.7220661644923</v>
-      </c>
-      <c r="S19">
-        <v>0.02712425985854224</v>
-      </c>
-      <c r="T19">
-        <v>0.02712425985854224</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>152.382926</v>
+      </c>
+      <c r="H22">
+        <v>457.148778</v>
+      </c>
+      <c r="I22">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J22">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q22">
+        <v>400.0927501381413</v>
+      </c>
+      <c r="R22">
+        <v>3600.834751243272</v>
+      </c>
+      <c r="S22">
+        <v>0.06785942537046367</v>
+      </c>
+      <c r="T22">
+        <v>0.06785942537046367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>152.382926</v>
+      </c>
+      <c r="H23">
+        <v>457.148778</v>
+      </c>
+      <c r="I23">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J23">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.401354</v>
+      </c>
+      <c r="N23">
+        <v>4.204062</v>
+      </c>
+      <c r="O23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q23">
+        <v>213.542422881804</v>
+      </c>
+      <c r="R23">
+        <v>1921.881805936236</v>
+      </c>
+      <c r="S23">
+        <v>0.03621876703332532</v>
+      </c>
+      <c r="T23">
+        <v>0.03621876703332531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>152.382926</v>
+      </c>
+      <c r="H24">
+        <v>457.148778</v>
+      </c>
+      <c r="I24">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J24">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.066056</v>
+      </c>
+      <c r="N24">
+        <v>0.198168</v>
+      </c>
+      <c r="O24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q24">
+        <v>10.065806559856</v>
+      </c>
+      <c r="R24">
+        <v>90.592259038704</v>
+      </c>
+      <c r="S24">
+        <v>0.001707253752551701</v>
+      </c>
+      <c r="T24">
+        <v>0.001707253752551701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>152.382926</v>
+      </c>
+      <c r="H25">
+        <v>457.148778</v>
+      </c>
+      <c r="I25">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="J25">
+        <v>0.1239910009702851</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.704398</v>
+      </c>
+      <c r="N25">
+        <v>2.113194</v>
+      </c>
+      <c r="O25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q25">
+        <v>107.338228308548</v>
+      </c>
+      <c r="R25">
+        <v>966.0440547769319</v>
+      </c>
+      <c r="S25">
+        <v>0.01820555481394443</v>
+      </c>
+      <c r="T25">
+        <v>0.01820555481394443</v>
       </c>
     </row>
   </sheetData>
